--- a/Homework1/Team Member Review 1.xlsx
+++ b/Homework1/Team Member Review 1.xlsx
@@ -215,14 +215,15 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7397959183673"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.280612244898"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.1734693877551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71938775510204"/>
@@ -256,11 +257,21 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,11 +279,21 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,11 +301,21 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -294,11 +325,21 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,11 +347,21 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,11 +369,21 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="C7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,11 +393,21 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,11 +415,21 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -356,11 +437,21 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
